--- a/Data/Corn_FuturesMarket Aug through Dec 18.xlsx
+++ b/Data/Corn_FuturesMarket Aug through Dec 18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc351d1287601e93/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinse\RStudio Working Directory\FAPRI\main-model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2D58DBAC-1B4A-4267-ABB5-CEF0112C3796}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1F5FADF3-8A88-4D44-94A3-6B5FA223666A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75101A6F-E339-4A09-8763-86521A507ADF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57510" yWindow="-90" windowWidth="25380" windowHeight="15330" xr2:uid="{9CAB96A0-2FD2-4B88-A2B2-39EBDE74AAF7}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9CAB96A0-2FD2-4B88-A2B2-39EBDE74AAF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Dec18,Dec18,19,20, Mar19 through 12/14</t>
-  </si>
-  <si>
-    <t>Mar19,Dec19,Dec20,Dec21,Mar19 until 12/31</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -70,18 +64,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,7 +87,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,38 +402,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B69EC-D32E-4200-B88E-7CE8005CBD0F}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>43313</v>
       </c>
@@ -465,7 +453,7 @@
         <v>3.9025000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>43314</v>
       </c>
@@ -485,7 +473,7 @@
         <v>3.9224999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>43315</v>
       </c>
@@ -505,7 +493,7 @@
         <v>3.9550000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>43318</v>
       </c>
@@ -525,7 +513,7 @@
         <v>3.9650000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>43319</v>
       </c>
@@ -545,7 +533,7 @@
         <v>3.9550000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>43320</v>
       </c>
@@ -565,7 +553,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>43321</v>
       </c>
@@ -585,7 +573,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>43322</v>
       </c>
@@ -605,7 +593,7 @@
         <v>3.8325</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>43325</v>
       </c>
@@ -625,7 +613,7 @@
         <v>3.8200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>43326</v>
       </c>
@@ -645,7 +633,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>43327</v>
       </c>
@@ -665,7 +653,7 @@
         <v>3.8774999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>43328</v>
       </c>
@@ -685,7 +673,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>43329</v>
       </c>
@@ -705,7 +693,7 @@
         <v>3.9075000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>43332</v>
       </c>
@@ -725,7 +713,7 @@
         <v>3.8850000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>43333</v>
       </c>
@@ -745,7 +733,7 @@
         <v>3.8625000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>43334</v>
       </c>
@@ -765,7 +753,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>43335</v>
       </c>
@@ -785,7 +773,7 @@
         <v>3.7324999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>43336</v>
       </c>
@@ -805,7 +793,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>43339</v>
       </c>
@@ -825,7 +813,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>43340</v>
       </c>
@@ -845,7 +833,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>43341</v>
       </c>
@@ -865,7 +853,7 @@
         <v>3.6950000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>43342</v>
       </c>
@@ -885,7 +873,7 @@
         <v>3.6924999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>43343</v>
       </c>
@@ -905,7 +893,7 @@
         <v>3.7725</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>43347</v>
       </c>
@@ -925,7 +913,7 @@
         <v>3.7974999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>43348</v>
       </c>
@@ -945,7 +933,7 @@
         <v>3.7725</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>43349</v>
       </c>
@@ -965,7 +953,7 @@
         <v>3.7825000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>43350</v>
       </c>
@@ -985,7 +973,7 @@
         <v>3.7925</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>43353</v>
       </c>
@@ -1005,7 +993,7 @@
         <v>3.7925</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>43354</v>
       </c>
@@ -1025,7 +1013,7 @@
         <v>3.7850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>43355</v>
       </c>
@@ -1044,8 +1032,15 @@
       <c r="F31">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>43356</v>
       </c>
@@ -1064,8 +1059,15 @@
       <c r="F32">
         <v>3.6274999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>43357</v>
       </c>
@@ -1084,8 +1086,15 @@
       <c r="F33">
         <v>3.6375000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>43360</v>
       </c>
@@ -1104,14 +1113,15 @@
       <c r="F34">
         <v>3.6</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>43361</v>
       </c>
@@ -1130,8 +1140,15 @@
       <c r="F35">
         <v>3.5550000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>43362</v>
       </c>
@@ -1150,8 +1167,15 @@
       <c r="F36">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>43363</v>
       </c>
@@ -1170,8 +1194,15 @@
       <c r="F37">
         <v>3.6475</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>43364</v>
       </c>
@@ -1190,8 +1221,15 @@
       <c r="F38">
         <v>3.6924999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>43367</v>
       </c>
@@ -1210,8 +1248,15 @@
       <c r="F39">
         <v>3.7250000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>43368</v>
       </c>
@@ -1230,8 +1275,15 @@
       <c r="F40">
         <v>3.7575000000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>43369</v>
       </c>
@@ -1250,8 +1302,15 @@
       <c r="F41">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>43370</v>
       </c>
@@ -1270,8 +1329,15 @@
       <c r="F42">
         <v>3.7650000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>43371</v>
       </c>
@@ -1290,8 +1356,15 @@
       <c r="F43">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>43374</v>
       </c>
@@ -1310,8 +1383,15 @@
       <c r="F44">
         <v>3.7774999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>43375</v>
       </c>
@@ -1330,8 +1410,15 @@
       <c r="F45">
         <v>3.7949999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>43376</v>
       </c>
@@ -1350,8 +1437,15 @@
       <c r="F46">
         <v>3.7675000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>43377</v>
       </c>
@@ -1370,8 +1464,15 @@
       <c r="F47">
         <v>3.7925</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>43378</v>
       </c>
@@ -1390,8 +1491,15 @@
       <c r="F48">
         <v>3.8000000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>43381</v>
       </c>
@@ -1410,8 +1518,15 @@
       <c r="F49">
         <v>3.7850000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>43382</v>
       </c>
@@ -1430,8 +1545,15 @@
       <c r="F50">
         <v>3.7650000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>43383</v>
       </c>
@@ -1450,8 +1572,15 @@
       <c r="F51">
         <v>3.7475000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>43384</v>
       </c>
@@ -1470,8 +1599,15 @@
       <c r="F52">
         <v>3.8125</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>43385</v>
       </c>
@@ -1490,8 +1626,15 @@
       <c r="F53">
         <v>3.8574999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>43388</v>
       </c>
@@ -1510,8 +1653,15 @@
       <c r="F54">
         <v>3.9025000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>43389</v>
       </c>
@@ -1530,8 +1680,15 @@
       <c r="F55">
         <v>3.8725000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>43390</v>
       </c>
@@ -1550,8 +1707,15 @@
       <c r="F56">
         <v>3.8650000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>43391</v>
       </c>
@@ -1570,8 +1734,15 @@
       <c r="F57">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>43392</v>
       </c>
@@ -1590,8 +1761,15 @@
       <c r="F58">
         <v>3.7949999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>43395</v>
       </c>
@@ -1610,8 +1788,15 @@
       <c r="F59">
         <v>3.8174999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>43396</v>
       </c>
@@ -1630,8 +1815,15 @@
       <c r="F60">
         <v>3.8250000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>43397</v>
       </c>
@@ -1650,8 +1842,15 @@
       <c r="F61">
         <v>3.8050000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>43398</v>
       </c>
@@ -1670,8 +1869,15 @@
       <c r="F62">
         <v>3.7349999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>43399</v>
       </c>
@@ -1690,8 +1896,15 @@
       <c r="F63">
         <v>3.8000000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>43402</v>
       </c>
@@ -1710,8 +1923,15 @@
       <c r="F64">
         <v>3.7925</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>43403</v>
       </c>
@@ -1730,8 +1950,15 @@
       <c r="F65">
         <v>3.7725</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>43404</v>
       </c>
@@ -1750,8 +1977,15 @@
       <c r="F66">
         <v>3.7575000000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>43405</v>
       </c>
@@ -1770,8 +2004,15 @@
       <c r="F67">
         <v>3.7875000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>43406</v>
       </c>
@@ -1790,8 +2031,15 @@
       <c r="F68">
         <v>3.8325</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>43409</v>
       </c>
@@ -1810,8 +2058,15 @@
       <c r="F69">
         <v>3.8574999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>43410</v>
       </c>
@@ -1830,8 +2085,15 @@
       <c r="F70">
         <v>3.8525</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>43411</v>
       </c>
@@ -1850,8 +2112,15 @@
       <c r="F71">
         <v>3.8374999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>43412</v>
       </c>
@@ -1870,8 +2139,15 @@
       <c r="F72">
         <v>3.8525</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>43413</v>
       </c>
@@ -1890,8 +2166,15 @@
       <c r="F73">
         <v>3.8125</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>43416</v>
       </c>
@@ -1910,8 +2193,15 @@
       <c r="F74">
         <v>3.8225000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>43417</v>
       </c>
@@ -1930,8 +2220,15 @@
       <c r="F75">
         <v>3.7774999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>43418</v>
       </c>
@@ -1950,8 +2247,15 @@
       <c r="F76">
         <v>3.7800000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>43419</v>
       </c>
@@ -1970,8 +2274,15 @@
       <c r="F77">
         <v>3.7825000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>43420</v>
       </c>
@@ -1990,8 +2301,15 @@
       <c r="F78">
         <v>3.7575000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>43423</v>
       </c>
@@ -2010,8 +2328,15 @@
       <c r="F79">
         <v>3.7324999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>43424</v>
       </c>
@@ -2030,8 +2355,15 @@
       <c r="F80">
         <v>3.7225000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>43425</v>
       </c>
@@ -2050,8 +2382,15 @@
       <c r="F81">
         <v>3.7275</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>43427</v>
       </c>
@@ -2070,8 +2409,15 @@
       <c r="F82">
         <v>3.7050000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>43430</v>
       </c>
@@ -2090,8 +2436,15 @@
       <c r="F83">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>43431</v>
       </c>
@@ -2110,8 +2463,15 @@
       <c r="F84">
         <v>3.6850000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>43432</v>
       </c>
@@ -2130,8 +2490,15 @@
       <c r="F85">
         <v>3.7324999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>43433</v>
       </c>
@@ -2150,8 +2517,15 @@
       <c r="F86">
         <v>3.7324999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>43434</v>
       </c>
@@ -2170,8 +2544,15 @@
       <c r="F87">
         <v>3.7774999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>43437</v>
       </c>
@@ -2190,8 +2571,15 @@
       <c r="F88">
         <v>3.8200000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>43438</v>
       </c>
@@ -2210,8 +2598,15 @@
       <c r="F89">
         <v>3.8475000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>43439</v>
       </c>
@@ -2230,8 +2625,15 @@
       <c r="F90">
         <v>3.8425000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>43440</v>
       </c>
@@ -2250,8 +2652,15 @@
       <c r="F91">
         <v>3.8275000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>43441</v>
       </c>
@@ -2270,8 +2679,15 @@
       <c r="F92">
         <v>3.855</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>43444</v>
       </c>
@@ -2290,8 +2706,15 @@
       <c r="F93">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>43445</v>
       </c>
@@ -2310,8 +2733,15 @@
       <c r="F94">
         <v>3.8475000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>43446</v>
       </c>
@@ -2330,8 +2760,15 @@
       <c r="F95">
         <v>3.8525</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>43447</v>
       </c>
@@ -2350,8 +2787,15 @@
       <c r="F96">
         <v>3.8425000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>43448</v>
       </c>
@@ -2370,8 +2814,15 @@
       <c r="F97">
         <v>3.8475000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>43451</v>
       </c>
@@ -2390,15 +2841,15 @@
       <c r="F98">
         <v>3.84</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>43452</v>
       </c>
@@ -2417,8 +2868,15 @@
       <c r="F99">
         <v>3.855</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>43453</v>
       </c>
@@ -2437,8 +2895,15 @@
       <c r="F100">
         <v>3.8174999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>43454</v>
       </c>
@@ -2457,8 +2922,15 @@
       <c r="F101">
         <v>3.7524999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>43455</v>
       </c>
@@ -2477,8 +2949,15 @@
       <c r="F102">
         <v>3.7850000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>43458</v>
       </c>
@@ -2497,8 +2976,15 @@
       <c r="F103">
         <v>3.7774999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>43460</v>
       </c>
@@ -2517,8 +3003,15 @@
       <c r="F104">
         <v>3.7324999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>43461</v>
       </c>
@@ -2537,8 +3030,15 @@
       <c r="F105">
         <v>3.7450000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>43462</v>
       </c>
@@ -2557,8 +3057,15 @@
       <c r="F106">
         <v>3.7549999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>43465</v>
       </c>
@@ -2577,6 +3084,49 @@
       <c r="F107">
         <v>3.75</v>
       </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
